--- a/UploadExcel/TD_WavierCases.xlsx
+++ b/UploadExcel/TD_WavierCases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dchinnasam\OneDrive\Documents\SAP Test Automation\SAP-Test-Automation\TestSuites\UploadExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dchinnasam\OneDrive\Documents\SAP Test Automation\SAP-Test-Automation\UploadExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1780DA-AD01-4A0F-AE51-29DCB8CDFC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767F85B4-CB21-4FF2-98BB-C8B1D6FC05D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="274">
   <si>
     <t>ExecutionEnvironment</t>
   </si>
@@ -745,63 +745,6 @@
   </si>
   <si>
     <t>ScenarioList</t>
-  </si>
-  <si>
-    <t>DiscountType4</t>
-  </si>
-  <si>
-    <t>DiscountType5</t>
-  </si>
-  <si>
-    <t>DiscountType6</t>
-  </si>
-  <si>
-    <t>DiscouontCondition2</t>
-  </si>
-  <si>
-    <t>DiscountCondition4</t>
-  </si>
-  <si>
-    <t>DiscountCondition5</t>
-  </si>
-  <si>
-    <t>DiscountCondition6</t>
-  </si>
-  <si>
-    <t>DiscountPercentage1</t>
-  </si>
-  <si>
-    <t>DiscountPercentage2</t>
-  </si>
-  <si>
-    <t>DiscountPercentage3</t>
-  </si>
-  <si>
-    <t>DiscountPercentage4</t>
-  </si>
-  <si>
-    <t>DiscountPercentage5</t>
-  </si>
-  <si>
-    <t>DiscountPercentage6</t>
-  </si>
-  <si>
-    <t>AppliedYes1</t>
-  </si>
-  <si>
-    <t>AppliedYes2</t>
-  </si>
-  <si>
-    <t>AppliedYes3</t>
-  </si>
-  <si>
-    <t>AppliedYes4</t>
-  </si>
-  <si>
-    <t>AppliedYes5</t>
-  </si>
-  <si>
-    <t>AppliedYes6</t>
   </si>
   <si>
     <t>PriceProposalStatus</t>
@@ -913,7 +856,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -935,12 +878,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF067D17"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="9.8000000000000007"/>
@@ -1033,7 +970,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1052,9 +989,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
@@ -1774,16 +1708,16 @@
       <c r="W2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="X2" s="14" t="s">
         <v>34</v>
       </c>
       <c r="Y2" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="Z2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AA2" s="15" t="s">
+      <c r="AA2" s="14" t="s">
         <v>22</v>
       </c>
       <c r="AB2" t="s">
@@ -1851,16 +1785,16 @@
       <c r="W3" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="X3" s="15" t="s">
+      <c r="X3" s="14" t="s">
         <v>34</v>
       </c>
       <c r="Y3" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="Z3" s="15" t="s">
+      <c r="Z3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AA3" s="15" t="s">
+      <c r="AA3" s="14" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2167,13 +2101,13 @@
       <c r="A5" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2223,13 +2157,13 @@
       <c r="A9" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2251,13 +2185,13 @@
       <c r="A11" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2265,13 +2199,13 @@
       <c r="A12" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2279,13 +2213,13 @@
       <c r="A13" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2293,13 +2227,13 @@
       <c r="A14" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2307,13 +2241,13 @@
       <c r="A15" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2321,13 +2255,13 @@
       <c r="A16" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2335,13 +2269,13 @@
       <c r="A17" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2363,13 +2297,13 @@
       <c r="A19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="15" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2377,13 +2311,13 @@
       <c r="A20" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2391,13 +2325,13 @@
       <c r="A21" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>186</v>
       </c>
     </row>
@@ -2405,13 +2339,13 @@
       <c r="A22" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="15" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2419,13 +2353,13 @@
       <c r="A23" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="14" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2433,13 +2367,13 @@
       <c r="A24" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="15" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2447,13 +2381,13 @@
       <c r="A25" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="14" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2461,13 +2395,13 @@
       <c r="A26" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="15" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2475,13 +2409,13 @@
       <c r="A27" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="15" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2489,13 +2423,13 @@
       <c r="A28" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="15" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2503,13 +2437,13 @@
       <c r="A29" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="15" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2517,13 +2451,13 @@
       <c r="A30" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="15" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2531,13 +2465,13 @@
       <c r="A31" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="15" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2545,13 +2479,13 @@
       <c r="A32" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="15" t="s">
         <v>204</v>
       </c>
     </row>
@@ -2559,13 +2493,13 @@
       <c r="A33" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="15" t="s">
         <v>210</v>
       </c>
     </row>
@@ -2576,10 +2510,10 @@
       <c r="B34" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="15" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2590,10 +2524,10 @@
       <c r="B35" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="15" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2604,10 +2538,10 @@
       <c r="B36" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="15" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2618,10 +2552,10 @@
       <c r="B37" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="15" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2632,10 +2566,10 @@
       <c r="B38" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D38" s="20" t="s">
         <v>220</v>
       </c>
     </row>
@@ -2646,10 +2580,10 @@
       <c r="B39" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="15" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2660,10 +2594,10 @@
       <c r="B40" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="15" t="s">
         <v>223</v>
       </c>
     </row>
@@ -2674,10 +2608,10 @@
       <c r="B41" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="15" t="s">
         <v>223</v>
       </c>
     </row>
@@ -2688,10 +2622,10 @@
       <c r="B42" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D42" s="20" t="s">
         <v>227</v>
       </c>
     </row>
@@ -2702,10 +2636,10 @@
       <c r="B43" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="15" t="s">
         <v>230</v>
       </c>
     </row>
@@ -2719,7 +2653,7 @@
       <c r="C44" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="15" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2733,7 +2667,7 @@
       <c r="C45" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="15" t="s">
         <v>217</v>
       </c>
     </row>
@@ -2747,7 +2681,7 @@
       <c r="C46" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="D46" s="21" t="s">
+      <c r="D46" s="20" t="s">
         <v>226</v>
       </c>
     </row>
@@ -2761,7 +2695,7 @@
       <c r="C47" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="15" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2775,7 +2709,7 @@
       <c r="C48" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="15" t="s">
         <v>229</v>
       </c>
     </row>
@@ -2791,22 +2725,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AI16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
     <col min="4" max="4" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:11">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -2822,305 +2755,233 @@
       <c r="E1" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="F1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="J1" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="AI1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:11">
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="D2" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="E2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="D3" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="E3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="D4" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="E4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="D5" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="E5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="D6" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="E6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="D7" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="E7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="B8" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="D8" t="s">
-        <v>276</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35">
+        <v>257</v>
+      </c>
+      <c r="E8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="D9" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="E9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="D10" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="E10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="B11" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="D11" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="E11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="B12" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="D12" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="E12" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="B13" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="D13" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="E13" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>287</v>
+      <c r="C14" s="13" t="s">
+        <v>268</v>
       </c>
       <c r="D14" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="E14" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="D15" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="E15" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="B16" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="D16" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="E16" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
